--- a/data/trans_bre/IP41-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP41-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-17,82; 2,13</t>
+          <t>-18,19; 2,35</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 10,19</t>
+          <t>-9,22; 9,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,93; 26,71</t>
+          <t>-0,25; 25,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-20,52; 2,76</t>
+          <t>-21,59; 2,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-10,26; 13,44</t>
+          <t>-10,72; 12,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,36; 43,91</t>
+          <t>-0,34; 41,17</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 3,26</t>
+          <t>-1,78; 3,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 3,6</t>
+          <t>-3,17; 3,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 2,83</t>
+          <t>-4,54; 3,4</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 3,53</t>
+          <t>-1,86; 3,63</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 4,14</t>
+          <t>-3,52; 4,15</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 3,53</t>
+          <t>-5,29; 4,17</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 1,66</t>
+          <t>-7,64; 1,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,02; 8,08</t>
+          <t>-1,12; 8,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 3,64</t>
+          <t>-7,13; 4,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,32; 1,74</t>
+          <t>-8,06; 1,42</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 9,19</t>
+          <t>-1,16; 9,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 4,21</t>
+          <t>-7,69; 4,66</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 1,02</t>
+          <t>-3,79; 0,9</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 3,55</t>
+          <t>-1,83; 3,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,75; 3,62</t>
+          <t>-2,69; 3,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,25; 1,12</t>
+          <t>-4,05; 0,98</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,92; 4,07</t>
+          <t>-2,04; 4,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 4,39</t>
+          <t>-3,15; 4,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">

--- a/data/trans_bre/IP41-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/IP41-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,37 +620,37 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-7,72</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>13,41</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,4%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,7%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -668,37 +668,37 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-18,15; 2,53</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-9,85; 9,31</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>1,98; 25,93</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,2; 3,28</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,66; 12,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,73; 43,26</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,17 +720,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-7,72</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>13,41</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -740,17 +740,17 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-9,4%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>19,7%</t>
+          <t>-0,87%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-18,19; 2,35</t>
+          <t>-1,83; 3,26</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,22; 9,54</t>
+          <t>-3,15; 3,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 25,14</t>
+          <t>-4,62; 3,14</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-21,59; 2,92</t>
+          <t>-1,93; 3,52</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-10,72; 12,69</t>
+          <t>-3,5; 4,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 41,17</t>
+          <t>-5,37; 3,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,17 +820,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,81</t>
+          <t>-2,83</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>3,22</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>-1,16</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -840,17 +840,17 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>-3,0%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,87%</t>
+          <t>-1,29%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 3,34</t>
+          <t>-7,59; 1,22</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 3,62</t>
+          <t>-0,87; 7,62</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,54; 3,4</t>
+          <t>-6,73; 4,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 3,63</t>
+          <t>-7,91; 1,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 4,15</t>
+          <t>-0,89; 8,59</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 4,17</t>
+          <t>-7,31; 5,15</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,17 +920,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-2,83</t>
+          <t>-1,29</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,22</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-1,16</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -940,17 +940,17 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-3,0%</t>
+          <t>-1,4%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-1,29%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 1,35</t>
+          <t>-3,81; 0,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 8,24</t>
+          <t>-2,04; 3,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,13; 4,11</t>
+          <t>-2,81; 3,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-8,06; 1,42</t>
+          <t>-4,06; 1,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 9,25</t>
+          <t>-2,28; 4,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 4,66</t>
+          <t>-3,31; 4,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1008,116 +1008,15 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-1,29</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,89</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,44</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-1,4%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>1,01%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,52%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-3,79; 0,9</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-1,83; 3,57</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-2,69; 3,54</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-4,05; 0,98</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-2,04; 4,09</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-3,15; 4,31</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:F1"/>
